--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E62582D-2F54-4B4E-93C4-BF7248ABCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDB2F7-8756-8743-8793-11BF2018F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="21100" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
   <si>
     <t>Faroe</t>
   </si>
@@ -957,6 +957,24 @@
   </si>
   <si>
     <t>Фароэ</t>
+  </si>
+  <si>
+    <t>Leper Pearls</t>
+  </si>
+  <si>
+    <t>Жемчуг прокажённого</t>
+  </si>
+  <si>
+    <t>Puddingstone</t>
+  </si>
+  <si>
+    <t>Пудинговый камень</t>
+  </si>
+  <si>
+    <t>Клеймо</t>
+  </si>
+  <si>
+    <t>Brand</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2438,6 +2456,30 @@
         <v>302</v>
       </c>
     </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>306</v>
+      </c>
+      <c r="M49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>311</v>
+      </c>
+      <c r="M51" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBDB2F7-8756-8743-8793-11BF2018F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9146D8-A32F-E744-8E43-E35A667035D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="21100" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
   <si>
     <t>Faroe</t>
   </si>
@@ -975,6 +975,48 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Caelkirk</t>
+  </si>
+  <si>
+    <t>Келкирк</t>
+  </si>
+  <si>
+    <t>Lutrin</t>
+  </si>
+  <si>
+    <t>Лутрин</t>
+  </si>
+  <si>
+    <t>Coblaith</t>
+  </si>
+  <si>
+    <t>Drest</t>
+  </si>
+  <si>
+    <t>Tharain</t>
+  </si>
+  <si>
+    <t>Four Counts</t>
+  </si>
+  <si>
+    <t>Четыре графа</t>
+  </si>
+  <si>
+    <t>Eanverness</t>
+  </si>
+  <si>
+    <t>Энвернесc</t>
+  </si>
+  <si>
+    <t>Коблайт</t>
+  </si>
+  <si>
+    <t>Drostan</t>
+  </si>
+  <si>
+    <t>Дростан</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1048,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1085,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1056,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1068,6 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1384,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2247,6 +2296,12 @@
       <c r="B31" t="s">
         <v>60</v>
       </c>
+      <c r="I31" t="s">
+        <v>312</v>
+      </c>
+      <c r="J31" t="s">
+        <v>313</v>
+      </c>
       <c r="L31" t="s">
         <v>253</v>
       </c>
@@ -2261,6 +2316,12 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>321</v>
+      </c>
+      <c r="J32" t="s">
+        <v>322</v>
+      </c>
       <c r="L32" t="s">
         <v>257</v>
       </c>
@@ -2407,6 +2468,12 @@
       <c r="M42" t="s">
         <v>272</v>
       </c>
+      <c r="O42" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="43" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
@@ -2415,6 +2482,12 @@
       <c r="M43" t="s">
         <v>279</v>
       </c>
+      <c r="O43" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="44" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
@@ -2423,6 +2496,12 @@
       <c r="M44" t="s">
         <v>297</v>
       </c>
+      <c r="O44" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="45" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
@@ -2431,6 +2510,8 @@
       <c r="M45" t="s">
         <v>298</v>
       </c>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
@@ -2439,6 +2520,10 @@
       <c r="M46" t="s">
         <v>299</v>
       </c>
+      <c r="O46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="P46" s="9"/>
     </row>
     <row r="47" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
@@ -2447,6 +2532,10 @@
       <c r="M47" t="s">
         <v>300</v>
       </c>
+      <c r="O47" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="P47" s="9"/>
     </row>
     <row r="48" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
@@ -2454,6 +2543,12 @@
       </c>
       <c r="M48" t="s">
         <v>302</v>
+      </c>
+      <c r="O48" t="s">
+        <v>324</v>
+      </c>
+      <c r="P48" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.2">

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9146D8-A32F-E744-8E43-E35A667035D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C988676-B4F0-DE4D-B127-131CF58445C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="21100" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="350">
   <si>
     <t>Faroe</t>
   </si>
@@ -1017,6 +1017,78 @@
   </si>
   <si>
     <t>Дростан</t>
+  </si>
+  <si>
+    <t>Corrimony</t>
+  </si>
+  <si>
+    <t>Корримони</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Джеймс</t>
+  </si>
+  <si>
+    <t>Дрест</t>
+  </si>
+  <si>
+    <t>Rynd</t>
+  </si>
+  <si>
+    <t>Ринд</t>
+  </si>
+  <si>
+    <t>Methven</t>
+  </si>
+  <si>
+    <t>Метвен</t>
+  </si>
+  <si>
+    <t>Rpthrglen</t>
+  </si>
+  <si>
+    <t>Rpgthrglen</t>
+  </si>
+  <si>
+    <t>Рутерглен</t>
+  </si>
+  <si>
+    <t>Howar</t>
+  </si>
+  <si>
+    <t>Ховар</t>
+  </si>
+  <si>
+    <t>Crummock</t>
+  </si>
+  <si>
+    <t>Краммок</t>
+  </si>
+  <si>
+    <t>Dun Dulnadd</t>
+  </si>
+  <si>
+    <t>Дан-Дулнадд</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>Контин</t>
+  </si>
+  <si>
+    <t>Victory Aureus</t>
+  </si>
+  <si>
+    <t>Serpents Draught</t>
+  </si>
+  <si>
+    <t>Победный ауреус</t>
+  </si>
+  <si>
+    <t>Змеиная тяга</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1117,11 +1189,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1431,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2335,7 +2419,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" t="s">
+        <v>327</v>
+      </c>
       <c r="L33" t="s">
         <v>267</v>
       </c>
@@ -2349,7 +2439,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J34" t="s">
+        <v>332</v>
+      </c>
       <c r="L34" t="s">
         <v>258</v>
       </c>
@@ -2363,7 +2459,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" t="s">
+        <v>334</v>
+      </c>
       <c r="L35" t="s">
         <v>259</v>
       </c>
@@ -2377,7 +2479,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
       <c r="L36" t="s">
         <v>260</v>
       </c>
@@ -2391,7 +2499,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
       <c r="L37" t="s">
         <v>261</v>
       </c>
@@ -2405,7 +2519,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
       <c r="L38" t="s">
         <v>262</v>
       </c>
@@ -2419,7 +2539,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
       <c r="L39" t="s">
         <v>263</v>
       </c>
@@ -2433,7 +2559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L40" t="s">
         <v>303</v>
       </c>
@@ -2447,7 +2573,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L41" t="s">
         <v>264</v>
       </c>
@@ -2461,7 +2587,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L42" t="s">
         <v>265</v>
       </c>
@@ -2475,7 +2601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
         <v>266</v>
       </c>
@@ -2489,7 +2615,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
         <v>292</v>
       </c>
@@ -2503,7 +2629,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
         <v>294</v>
       </c>
@@ -2513,7 +2639,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
         <v>295</v>
       </c>
@@ -2523,9 +2649,11 @@
       <c r="O46" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
         <v>296</v>
       </c>
@@ -2537,7 +2665,7 @@
       </c>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
         <v>301</v>
       </c>
@@ -2551,28 +2679,62 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L49" t="s">
         <v>306</v>
       </c>
       <c r="M49" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>328</v>
+      </c>
+      <c r="P49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L50" t="s">
         <v>308</v>
       </c>
       <c r="M50" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>338</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L51" t="s">
         <v>311</v>
       </c>
       <c r="M51" t="s">
         <v>310</v>
+      </c>
+      <c r="O51" t="s">
+        <v>340</v>
+      </c>
+      <c r="P51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2584,6 +2746,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A160">
     <sortCondition ref="A2:A160"/>
   </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Dropbox\Приложения\Obsidian\git projects\wutc-rus-main\gazetteer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C988676-B4F0-DE4D-B127-131CF58445C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60C00E-EBED-48D9-9ECD-0D9FAFE35148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="21100" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="390">
   <si>
     <t>Faroe</t>
   </si>
@@ -1089,6 +1089,126 @@
   </si>
   <si>
     <t>Змеиная тяга</t>
+  </si>
+  <si>
+    <t>Marlfagh</t>
+  </si>
+  <si>
+    <t>Марлфаг</t>
+  </si>
+  <si>
+    <t>Onthloug</t>
+  </si>
+  <si>
+    <t>Онтлуг</t>
+  </si>
+  <si>
+    <t>Tonintoul</t>
+  </si>
+  <si>
+    <t>Тонинтул</t>
+  </si>
+  <si>
+    <t>Ciniath</t>
+  </si>
+  <si>
+    <t>Киниат</t>
+  </si>
+  <si>
+    <t>Seonaid</t>
+  </si>
+  <si>
+    <t>Шинейд</t>
+  </si>
+  <si>
+    <t>Revenant Sword</t>
+  </si>
+  <si>
+    <t>Не упокоенный мститель</t>
+  </si>
+  <si>
+    <t>Liquid Empathy</t>
+  </si>
+  <si>
+    <t>Жидкая чувствительность</t>
+  </si>
+  <si>
+    <t>Uzelin</t>
+  </si>
+  <si>
+    <t>Узелин</t>
+  </si>
+  <si>
+    <t>Demonface Coin</t>
+  </si>
+  <si>
+    <t>Демоноликая монета</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Мариус</t>
+  </si>
+  <si>
+    <t>Treeheart</t>
+  </si>
+  <si>
+    <t>Throne Embers</t>
+  </si>
+  <si>
+    <t>Ghoul Drum</t>
+  </si>
+  <si>
+    <t>Wisdom Teeth</t>
+  </si>
+  <si>
+    <t>Temporary Disintegration</t>
+  </si>
+  <si>
+    <t>Child of Stone</t>
+  </si>
+  <si>
+    <t>Барабан гуля</t>
+  </si>
+  <si>
+    <t>Зубы мудрости</t>
+  </si>
+  <si>
+    <t>Временный распад</t>
+  </si>
+  <si>
+    <t>Дитя камня</t>
+  </si>
+  <si>
+    <t>Сердце древа</t>
+  </si>
+  <si>
+    <t>Угли трона</t>
+  </si>
+  <si>
+    <t>The Blooded Board</t>
+  </si>
+  <si>
+    <t>Окровавленная доска</t>
+  </si>
+  <si>
+    <t>The Bound Hand</t>
+  </si>
+  <si>
+    <t>Подневольная рука</t>
+  </si>
+  <si>
+    <t>Дун-Морбхайд</t>
+  </si>
+  <si>
+    <t>Dun Morbhaidh</t>
+  </si>
+  <si>
+    <t>Тарайн</t>
+  </si>
+  <si>
+    <t>Oswiu</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1190,6 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1515,34 +1636,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1606,7 +1727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1641,7 +1762,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1673,7 +1794,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1769,7 +1890,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1925,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1957,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +2018,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +2044,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1949,7 +2070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1975,7 +2096,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2001,7 +2122,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2148,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2053,7 +2174,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -2099,7 +2220,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2246,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2272,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2229,7 +2350,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2376,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2347,7 +2468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2494,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -2399,7 +2520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>321</v>
       </c>
@@ -2419,7 +2540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>326</v>
       </c>
@@ -2439,7 +2560,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>331</v>
       </c>
@@ -2459,7 +2580,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
         <v>333</v>
       </c>
@@ -2479,7 +2600,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>335</v>
       </c>
@@ -2499,7 +2620,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>336</v>
       </c>
@@ -2519,7 +2640,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>342</v>
       </c>
@@ -2539,7 +2660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>344</v>
       </c>
@@ -2559,7 +2680,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
       <c r="L40" t="s">
         <v>303</v>
       </c>
@@ -2573,7 +2700,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
       <c r="L41" t="s">
         <v>264</v>
       </c>
@@ -2587,7 +2720,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42" t="s">
+        <v>386</v>
+      </c>
       <c r="L42" t="s">
         <v>265</v>
       </c>
@@ -2601,7 +2740,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>266</v>
       </c>
@@ -2615,7 +2754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>292</v>
       </c>
@@ -2629,17 +2768,19 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
         <v>294</v>
       </c>
       <c r="M45" t="s">
         <v>298</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>295</v>
       </c>
@@ -2653,7 +2794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>296</v>
       </c>
@@ -2663,9 +2804,11 @@
       <c r="O47" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
         <v>301</v>
       </c>
@@ -2679,7 +2822,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>306</v>
       </c>
@@ -2693,7 +2836,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
         <v>308</v>
       </c>
@@ -2707,7 +2850,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>311</v>
       </c>
@@ -2721,20 +2864,140 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
         <v>346</v>
       </c>
       <c r="M52" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>352</v>
+      </c>
+      <c r="P52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>347</v>
       </c>
       <c r="M53" t="s">
         <v>349</v>
+      </c>
+      <c r="O53" t="s">
+        <v>356</v>
+      </c>
+      <c r="P53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>360</v>
+      </c>
+      <c r="M54" t="s">
+        <v>361</v>
+      </c>
+      <c r="O54" t="s">
+        <v>358</v>
+      </c>
+      <c r="P54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" t="s">
+        <v>368</v>
+      </c>
+      <c r="P55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>364</v>
+      </c>
+      <c r="M56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>371</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>372</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>373</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>374</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>375</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>382</v>
+      </c>
+      <c r="M64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>384</v>
+      </c>
+      <c r="M65" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\Dropbox\Приложения\Obsidian\git projects\wutc-rus-main\gazetteer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D60C00E-EBED-48D9-9ECD-0D9FAFE35148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F1693-002A-AF43-8311-742AB708B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="394">
   <si>
     <t>Faroe</t>
   </si>
@@ -1209,6 +1209,18 @@
   </si>
   <si>
     <t>Oswiu</t>
+  </si>
+  <si>
+    <t>Mongfind</t>
+  </si>
+  <si>
+    <t>Монгфинд</t>
+  </si>
+  <si>
+    <t>Flett</t>
+  </si>
+  <si>
+    <t>Флетт</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1309,7 +1321,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,32 +1649,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1890,7 +1901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +1936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2003,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -2044,7 +2055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2174,7 +2185,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2350,7 +2361,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2387,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2468,7 +2479,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I32" t="s">
         <v>321</v>
       </c>
@@ -2540,7 +2551,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
         <v>326</v>
       </c>
@@ -2560,7 +2571,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
         <v>331</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>333</v>
       </c>
@@ -2600,7 +2611,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>335</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
         <v>336</v>
       </c>
@@ -2640,7 +2651,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
         <v>342</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I39" t="s">
         <v>344</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
         <v>350</v>
       </c>
@@ -2700,7 +2711,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
         <v>354</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
         <v>387</v>
       </c>
@@ -2740,7 +2751,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L43" t="s">
         <v>266</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L44" t="s">
         <v>292</v>
       </c>
@@ -2768,7 +2779,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L45" t="s">
         <v>294</v>
       </c>
@@ -2778,9 +2789,9 @@
       <c r="O45" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
         <v>295</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
         <v>296</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
         <v>301</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L49" t="s">
         <v>306</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L50" t="s">
         <v>308</v>
       </c>
@@ -2846,11 +2857,11 @@
       <c r="O50" t="s">
         <v>338</v>
       </c>
-      <c r="P50" s="10" t="s">
+      <c r="P50" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L51" t="s">
         <v>311</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L52" t="s">
         <v>346</v>
       </c>
@@ -2878,7 +2889,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L53" t="s">
         <v>347</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L54" t="s">
         <v>360</v>
       </c>
@@ -2906,7 +2917,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L55" t="s">
         <v>362</v>
       </c>
@@ -2920,71 +2931,83 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L56" t="s">
         <v>364</v>
       </c>
       <c r="M56" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="57" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>390</v>
+      </c>
+      <c r="P56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L57" t="s">
         <v>366</v>
       </c>
       <c r="M57" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="58" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>392</v>
+      </c>
+      <c r="P57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L58" t="s">
         <v>370</v>
       </c>
-      <c r="M58" s="10" t="s">
+      <c r="M58" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L59" t="s">
         <v>371</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M59" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L60" t="s">
         <v>372</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L61" t="s">
         <v>373</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M61" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L62" t="s">
         <v>374</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="M62" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L63" t="s">
         <v>375</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="M63" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L64" t="s">
         <v>382</v>
       </c>
@@ -2992,7 +3015,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L65" t="s">
         <v>384</v>
       </c>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeypomerantsev/git projects/wutc-rus/gazetteer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\git projects\wutc-rus\gazetteer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F1693-002A-AF43-8311-742AB708B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C6BFC-8C67-4F7E-B0F7-034015A87C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15520" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="426">
   <si>
     <t>Faroe</t>
   </si>
@@ -1221,6 +1219,102 @@
   </si>
   <si>
     <t>Флетт</t>
+  </si>
+  <si>
+    <t>Kerwyn</t>
+  </si>
+  <si>
+    <t>Кервин</t>
+  </si>
+  <si>
+    <t>Dirnbych</t>
+  </si>
+  <si>
+    <t>Дирнбих</t>
+  </si>
+  <si>
+    <t>Caernfon</t>
+  </si>
+  <si>
+    <t>Кэрнфон</t>
+  </si>
+  <si>
+    <t>Ynyr</t>
+  </si>
+  <si>
+    <t>Янир</t>
+  </si>
+  <si>
+    <t>West Pyorrans</t>
+  </si>
+  <si>
+    <t>Западные Пиоррцы</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>Боудикка</t>
+  </si>
+  <si>
+    <t>Мурго</t>
+  </si>
+  <si>
+    <t>Murgo</t>
+  </si>
+  <si>
+    <t>Yrcoed</t>
+  </si>
+  <si>
+    <t>Иркойд</t>
+  </si>
+  <si>
+    <t>Wryddymbre</t>
+  </si>
+  <si>
+    <t>Llanelli</t>
+  </si>
+  <si>
+    <t>Лланелли</t>
+  </si>
+  <si>
+    <t>Вриддимбр</t>
+  </si>
+  <si>
+    <t>Seisyll</t>
+  </si>
+  <si>
+    <t>Сейсилл</t>
+  </si>
+  <si>
+    <t>Saint Anthony</t>
+  </si>
+  <si>
+    <t>Святой Антоний</t>
+  </si>
+  <si>
+    <t>Conar</t>
+  </si>
+  <si>
+    <t>Конар</t>
+  </si>
+  <si>
+    <t>Chulagh</t>
+  </si>
+  <si>
+    <t>Чулаг</t>
+  </si>
+  <si>
+    <t>Glanyrafor</t>
+  </si>
+  <si>
+    <t>Гланирафор</t>
+  </si>
+  <si>
+    <t>Wyn</t>
+  </si>
+  <si>
+    <t>Вин</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1420,47 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1649,32 +1783,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -1706,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1773,7 +1907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +1939,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +2003,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1901,7 +2035,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1936,7 +2070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +2102,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2003,7 +2137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +2163,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2081,7 +2215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2107,13 +2241,19 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
+      <c r="E15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I15" t="s">
         <v>82</v>
       </c>
@@ -2133,13 +2273,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
+      <c r="E16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" t="s">
+        <v>395</v>
+      </c>
       <c r="I16" t="s">
         <v>83</v>
       </c>
@@ -2159,13 +2305,19 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
+      <c r="E17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" t="s">
+        <v>401</v>
+      </c>
       <c r="I17" t="s">
         <v>182</v>
       </c>
@@ -2185,13 +2337,19 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="E18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" t="s">
+        <v>405</v>
+      </c>
       <c r="L18" t="s">
         <v>154</v>
       </c>
@@ -2205,13 +2363,19 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
+      <c r="E19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" t="s">
+        <v>406</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2231,13 +2395,19 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" t="s">
+        <v>415</v>
+      </c>
       <c r="I20" t="s">
         <v>208</v>
       </c>
@@ -2257,13 +2427,19 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
+      <c r="E21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" t="s">
+        <v>417</v>
+      </c>
       <c r="I21" t="s">
         <v>225</v>
       </c>
@@ -2283,13 +2459,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" t="s">
+        <v>419</v>
+      </c>
       <c r="I22" t="s">
         <v>227</v>
       </c>
@@ -2309,13 +2491,19 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
+      <c r="E23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" t="s">
+        <v>421</v>
+      </c>
       <c r="I23" t="s">
         <v>228</v>
       </c>
@@ -2335,13 +2523,19 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
+      <c r="E24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" t="s">
+        <v>423</v>
+      </c>
       <c r="I24" t="s">
         <v>230</v>
       </c>
@@ -2361,13 +2555,19 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
+      <c r="E25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" t="s">
+        <v>425</v>
+      </c>
       <c r="I25" t="s">
         <v>233</v>
       </c>
@@ -2387,7 +2587,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2607,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2653,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2479,7 +2679,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2705,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -2531,7 +2731,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>321</v>
       </c>
@@ -2551,7 +2751,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I33" t="s">
         <v>326</v>
       </c>
@@ -2571,7 +2777,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>397</v>
+      </c>
       <c r="I34" t="s">
         <v>331</v>
       </c>
@@ -2591,7 +2803,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>398</v>
+      </c>
+      <c r="B35" t="s">
+        <v>399</v>
+      </c>
       <c r="I35" t="s">
         <v>333</v>
       </c>
@@ -2611,7 +2829,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" t="s">
+        <v>403</v>
+      </c>
       <c r="I36" t="s">
         <v>335</v>
       </c>
@@ -2631,7 +2855,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" t="s">
+        <v>409</v>
+      </c>
       <c r="I37" t="s">
         <v>336</v>
       </c>
@@ -2651,7 +2881,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>411</v>
+      </c>
+      <c r="B38" t="s">
+        <v>412</v>
+      </c>
       <c r="I38" t="s">
         <v>342</v>
       </c>
@@ -2671,7 +2907,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" t="s">
+        <v>413</v>
+      </c>
       <c r="I39" t="s">
         <v>344</v>
       </c>
@@ -2691,7 +2933,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>350</v>
       </c>
@@ -2711,7 +2953,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>354</v>
       </c>
@@ -2731,7 +2973,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>387</v>
       </c>
@@ -2751,7 +2993,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>266</v>
       </c>
@@ -2765,7 +3007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>292</v>
       </c>
@@ -2779,7 +3021,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
         <v>294</v>
       </c>
@@ -2791,7 +3033,7 @@
       </c>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>295</v>
       </c>
@@ -2805,7 +3047,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>296</v>
       </c>
@@ -2819,7 +3061,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
         <v>301</v>
       </c>
@@ -2833,7 +3075,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>306</v>
       </c>
@@ -2847,7 +3089,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
         <v>308</v>
       </c>
@@ -2861,7 +3103,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>311</v>
       </c>
@@ -2875,7 +3117,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
         <v>346</v>
       </c>
@@ -2889,7 +3131,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>347</v>
       </c>
@@ -2903,7 +3145,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L54" t="s">
         <v>360</v>
       </c>
@@ -2917,7 +3159,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L55" t="s">
         <v>362</v>
       </c>
@@ -2931,7 +3173,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
         <v>364</v>
       </c>
@@ -2945,7 +3187,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
         <v>366</v>
       </c>
@@ -2959,7 +3201,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>370</v>
       </c>
@@ -2967,7 +3209,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>371</v>
       </c>
@@ -2975,7 +3217,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>372</v>
       </c>
@@ -2983,7 +3225,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
         <v>373</v>
       </c>
@@ -2991,7 +3233,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>374</v>
       </c>
@@ -2999,7 +3241,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>375</v>
       </c>
@@ -3007,7 +3249,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
         <v>382</v>
       </c>
@@ -3015,7 +3257,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>384</v>
       </c>
@@ -3032,7 +3274,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A160">
     <sortCondition ref="A2:A160"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A40:XFD1048576 C39:XFD39 H1:XFD38">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:G19 A21:G34 A20:D20 G20 A39:B39 A36:G38 A35 C35:G35">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD19 A20:D20 G20:XFD20 A21:XFD1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\git projects\wutc-rus\gazetteer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C6BFC-8C67-4F7E-B0F7-034015A87C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F7B27-30BE-4661-A623-BA11BB560B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="456">
   <si>
     <t>Faroe</t>
   </si>
@@ -1315,6 +1315,96 @@
   </si>
   <si>
     <t>Вин</t>
+  </si>
+  <si>
+    <t>Treorci</t>
+  </si>
+  <si>
+    <t>Треорчи</t>
+  </si>
+  <si>
+    <t>Donnchadh</t>
+  </si>
+  <si>
+    <t>Llewlyn</t>
+  </si>
+  <si>
+    <t>Ллевлин</t>
+  </si>
+  <si>
+    <t>Darlugdach</t>
+  </si>
+  <si>
+    <t>Дарлугдах</t>
+  </si>
+  <si>
+    <t>Доннчад</t>
+  </si>
+  <si>
+    <t>Cernyff</t>
+  </si>
+  <si>
+    <t>Чернифф</t>
+  </si>
+  <si>
+    <t>Llwelyn</t>
+  </si>
+  <si>
+    <t>Ллуэлин</t>
+  </si>
+  <si>
+    <t>Archbishop Mab</t>
+  </si>
+  <si>
+    <t>Архиепископша Мэб</t>
+  </si>
+  <si>
+    <t>GARRIUS</t>
+  </si>
+  <si>
+    <t>ГАРРИУС</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>МАРИАН</t>
+  </si>
+  <si>
+    <t>Birger</t>
+  </si>
+  <si>
+    <t>Биргер</t>
+  </si>
+  <si>
+    <t>The White Threads</t>
+  </si>
+  <si>
+    <t>Белые нити</t>
+  </si>
+  <si>
+    <t>Drych</t>
+  </si>
+  <si>
+    <t>Дрич</t>
+  </si>
+  <si>
+    <t>Gothrog</t>
+  </si>
+  <si>
+    <t>Готрог</t>
+  </si>
+  <si>
+    <t>The Breaker of Crowns</t>
+  </si>
+  <si>
+    <t>Сокрушитель корон</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Гэвин</t>
   </si>
 </sst>
 </file>
@@ -1420,27 +1510,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1784,28 +1854,28 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2594,6 +2664,12 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
+      <c r="E26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" t="s">
+        <v>433</v>
+      </c>
       <c r="I26" t="s">
         <v>235</v>
       </c>
@@ -2614,6 +2690,12 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
+      <c r="E27" t="s">
+        <v>429</v>
+      </c>
+      <c r="F27" t="s">
+        <v>430</v>
+      </c>
       <c r="I27" t="s">
         <v>237</v>
       </c>
@@ -2640,6 +2722,12 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
+      <c r="E28" t="s">
+        <v>431</v>
+      </c>
+      <c r="F28" t="s">
+        <v>432</v>
+      </c>
       <c r="I28" t="s">
         <v>239</v>
       </c>
@@ -2660,6 +2748,12 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
+      <c r="E29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F29" t="s">
+        <v>437</v>
+      </c>
       <c r="I29" t="s">
         <v>288</v>
       </c>
@@ -2686,6 +2780,12 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="E30" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" t="s">
+        <v>439</v>
+      </c>
       <c r="I30" t="s">
         <v>290</v>
       </c>
@@ -2712,6 +2812,12 @@
       <c r="B31" t="s">
         <v>60</v>
       </c>
+      <c r="E31" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" t="s">
+        <v>441</v>
+      </c>
       <c r="I31" t="s">
         <v>312</v>
       </c>
@@ -2732,6 +2838,12 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F32" t="s">
+        <v>443</v>
+      </c>
       <c r="I32" t="s">
         <v>321</v>
       </c>
@@ -2758,6 +2870,12 @@
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E33" t="s">
+        <v>444</v>
+      </c>
+      <c r="F33" t="s">
+        <v>445</v>
+      </c>
       <c r="I33" t="s">
         <v>326</v>
       </c>
@@ -2784,6 +2902,12 @@
       <c r="B34" t="s">
         <v>397</v>
       </c>
+      <c r="E34" t="s">
+        <v>446</v>
+      </c>
+      <c r="F34" t="s">
+        <v>447</v>
+      </c>
       <c r="I34" t="s">
         <v>331</v>
       </c>
@@ -2810,6 +2934,12 @@
       <c r="B35" t="s">
         <v>399</v>
       </c>
+      <c r="E35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" t="s">
+        <v>451</v>
+      </c>
       <c r="I35" t="s">
         <v>333</v>
       </c>
@@ -2836,6 +2966,12 @@
       <c r="B36" t="s">
         <v>403</v>
       </c>
+      <c r="E36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F36" t="s">
+        <v>453</v>
+      </c>
       <c r="I36" t="s">
         <v>335</v>
       </c>
@@ -2862,6 +2998,12 @@
       <c r="B37" t="s">
         <v>409</v>
       </c>
+      <c r="E37" t="s">
+        <v>454</v>
+      </c>
+      <c r="F37" t="s">
+        <v>455</v>
+      </c>
       <c r="I37" t="s">
         <v>336</v>
       </c>
@@ -2934,6 +3076,12 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" t="s">
+        <v>427</v>
+      </c>
       <c r="I40" t="s">
         <v>350</v>
       </c>
@@ -2954,6 +3102,12 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" t="s">
+        <v>435</v>
+      </c>
       <c r="I41" t="s">
         <v>354</v>
       </c>
@@ -2974,6 +3128,12 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>448</v>
+      </c>
+      <c r="B42" t="s">
+        <v>449</v>
+      </c>
       <c r="I42" t="s">
         <v>387</v>
       </c>
@@ -3274,14 +3434,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A160">
     <sortCondition ref="A2:A160"/>
   </sortState>
-  <conditionalFormatting sqref="A40:XFD1048576 C39:XFD39 H1:XFD38">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A1:G19 A21:G25 A27:G34 A26:D26 G26 A20:D20 G20 A39:B40 A36:G38 A35 C35:G35">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G19 A21:G34 A20:D20 G20 A39:B39 A36:G38 A35 C35:G35">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A1:XFD19 A20:D20 G20:XFD20 A21:XFD25 A26:D26 G26:XFD26 A27:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD19 A20:D20 G20:XFD20 A21:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A41:XFD1048576 C39:XFD40 H1:XFD38">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\git projects\wutc-rus\gazetteer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511F7B27-30BE-4661-A623-BA11BB560B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D4B116-84FD-4F8E-9751-E23569A51B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
   <si>
     <t>Faroe</t>
   </si>
@@ -1405,6 +1405,30 @@
   </si>
   <si>
     <t>Гэвин</t>
+  </si>
+  <si>
+    <t>Brychdyn</t>
+  </si>
+  <si>
+    <t>Бричдин</t>
+  </si>
+  <si>
+    <t>Blethyn</t>
+  </si>
+  <si>
+    <t>Блетин</t>
+  </si>
+  <si>
+    <t>Ednyfed</t>
+  </si>
+  <si>
+    <t>Эднифед</t>
+  </si>
+  <si>
+    <t>Eilian</t>
+  </si>
+  <si>
+    <t>Эйлиан</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,6 +3054,12 @@
       <c r="B38" t="s">
         <v>412</v>
       </c>
+      <c r="E38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F38" t="s">
+        <v>459</v>
+      </c>
       <c r="I38" t="s">
         <v>342</v>
       </c>
@@ -3056,6 +3086,12 @@
       <c r="B39" t="s">
         <v>413</v>
       </c>
+      <c r="E39" t="s">
+        <v>460</v>
+      </c>
+      <c r="F39" t="s">
+        <v>461</v>
+      </c>
       <c r="I39" t="s">
         <v>344</v>
       </c>
@@ -3082,6 +3118,12 @@
       <c r="B40" t="s">
         <v>427</v>
       </c>
+      <c r="E40" t="s">
+        <v>462</v>
+      </c>
+      <c r="F40" t="s">
+        <v>463</v>
+      </c>
       <c r="I40" t="s">
         <v>350</v>
       </c>
@@ -3154,6 +3196,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>456</v>
+      </c>
+      <c r="B43" t="s">
+        <v>457</v>
+      </c>
       <c r="L43" t="s">
         <v>266</v>
       </c>

--- a/gazetteer/gazetteer.xlsx
+++ b/gazetteer/gazetteer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergey.pomerancev\git projects\wutc-rus\gazetteer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D4B116-84FD-4F8E-9751-E23569A51B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48C406-B2F0-40DE-97D6-54D25E4DA8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C90B8C3A-B067-4958-B5AD-9BC0D983924F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="516">
   <si>
     <t>Faroe</t>
   </si>
@@ -1429,6 +1429,162 @@
   </si>
   <si>
     <t>Эйлиан</t>
+  </si>
+  <si>
+    <t>Ffordunum</t>
+  </si>
+  <si>
+    <t>Ффордунум</t>
+  </si>
+  <si>
+    <t>Rhaglan</t>
+  </si>
+  <si>
+    <t>Раглан</t>
+  </si>
+  <si>
+    <t>Anfan</t>
+  </si>
+  <si>
+    <t>Анфан</t>
+  </si>
+  <si>
+    <t>Tomos</t>
+  </si>
+  <si>
+    <t>Томос</t>
+  </si>
+  <si>
+    <t>Enid</t>
+  </si>
+  <si>
+    <t>Энид</t>
+  </si>
+  <si>
+    <t>Народы</t>
+  </si>
+  <si>
+    <t>Picts</t>
+  </si>
+  <si>
+    <t>Norsefolk</t>
+  </si>
+  <si>
+    <t>Brythons</t>
+  </si>
+  <si>
+    <t>Пикты</t>
+  </si>
+  <si>
+    <t>Варяги</t>
+  </si>
+  <si>
+    <t>Райсы</t>
+  </si>
+  <si>
+    <t>Бритты</t>
+  </si>
+  <si>
+    <t>Siôn</t>
+  </si>
+  <si>
+    <t>Сион</t>
+  </si>
+  <si>
+    <t>Rhedynfre</t>
+  </si>
+  <si>
+    <t>Редингфре</t>
+  </si>
+  <si>
+    <t>Newyddilyn</t>
+  </si>
+  <si>
+    <t>Bwlch</t>
+  </si>
+  <si>
+    <t>Gruffudd</t>
+  </si>
+  <si>
+    <t>Saith</t>
+  </si>
+  <si>
+    <t>Reece</t>
+  </si>
+  <si>
+    <t>Cled</t>
+  </si>
+  <si>
+    <t>Caron</t>
+  </si>
+  <si>
+    <t>Dafydd</t>
+  </si>
+  <si>
+    <t>Gilvaethwy</t>
+  </si>
+  <si>
+    <t>Pedr</t>
+  </si>
+  <si>
+    <t>Ньюиддилин</t>
+  </si>
+  <si>
+    <t>Булч</t>
+  </si>
+  <si>
+    <t>Сайтх</t>
+  </si>
+  <si>
+    <t>Рис</t>
+  </si>
+  <si>
+    <t>Клед</t>
+  </si>
+  <si>
+    <t>Карон</t>
+  </si>
+  <si>
+    <t>Гилветви</t>
+  </si>
+  <si>
+    <t>Педр</t>
+  </si>
+  <si>
+    <t>Груффуд</t>
+  </si>
+  <si>
+    <t>Дафидд</t>
+  </si>
+  <si>
+    <t>Olwyn</t>
+  </si>
+  <si>
+    <t>Олвин</t>
+  </si>
+  <si>
+    <t>Maeyfed</t>
+  </si>
+  <si>
+    <t>Мэйфед</t>
+  </si>
+  <si>
+    <t>Cathan</t>
+  </si>
+  <si>
+    <t>Катан</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Seren</t>
+  </si>
+  <si>
+    <t>Мари</t>
+  </si>
+  <si>
+    <t>Серен</t>
   </si>
 </sst>
 </file>
@@ -1877,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEF1417-2C80-4532-AC37-5019930D6A75}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,6 +3306,12 @@
       <c r="B41" t="s">
         <v>435</v>
       </c>
+      <c r="E41" t="s">
+        <v>468</v>
+      </c>
+      <c r="F41" t="s">
+        <v>469</v>
+      </c>
       <c r="I41" t="s">
         <v>354</v>
       </c>
@@ -3176,6 +3338,12 @@
       <c r="B42" t="s">
         <v>449</v>
       </c>
+      <c r="E42" t="s">
+        <v>470</v>
+      </c>
+      <c r="F42" t="s">
+        <v>471</v>
+      </c>
       <c r="I42" t="s">
         <v>387</v>
       </c>
@@ -3202,6 +3370,12 @@
       <c r="B43" t="s">
         <v>457</v>
       </c>
+      <c r="E43" t="s">
+        <v>472</v>
+      </c>
+      <c r="F43" t="s">
+        <v>473</v>
+      </c>
       <c r="L43" t="s">
         <v>266</v>
       </c>
@@ -3216,6 +3390,24 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>464</v>
+      </c>
+      <c r="B44" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" t="s">
+        <v>482</v>
+      </c>
+      <c r="F44" t="s">
+        <v>483</v>
+      </c>
+      <c r="I44" t="s">
+        <v>474</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
       <c r="L44" t="s">
         <v>292</v>
       </c>
@@ -3230,6 +3422,24 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
+      <c r="E45" t="s">
+        <v>486</v>
+      </c>
+      <c r="F45" t="s">
+        <v>496</v>
+      </c>
+      <c r="I45" t="s">
+        <v>475</v>
+      </c>
+      <c r="J45" t="s">
+        <v>478</v>
+      </c>
       <c r="L45" t="s">
         <v>294</v>
       </c>
@@ -3242,6 +3452,24 @@
       <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" t="s">
+        <v>485</v>
+      </c>
+      <c r="E46" t="s">
+        <v>487</v>
+      </c>
+      <c r="F46" t="s">
+        <v>497</v>
+      </c>
+      <c r="I46" t="s">
+        <v>476</v>
+      </c>
+      <c r="J46" t="s">
+        <v>479</v>
+      </c>
       <c r="L46" t="s">
         <v>295</v>
       </c>
@@ -3256,6 +3484,24 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>508</v>
+      </c>
+      <c r="B47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E47" t="s">
+        <v>488</v>
+      </c>
+      <c r="F47" t="s">
+        <v>504</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>480</v>
+      </c>
       <c r="L47" t="s">
         <v>296</v>
       </c>
@@ -3270,6 +3516,18 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>489</v>
+      </c>
+      <c r="F48" t="s">
+        <v>498</v>
+      </c>
+      <c r="I48" t="s">
+        <v>477</v>
+      </c>
+      <c r="J48" t="s">
+        <v>481</v>
+      </c>
       <c r="L48" t="s">
         <v>301</v>
       </c>
@@ -3283,7 +3541,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>490</v>
+      </c>
+      <c r="F49" t="s">
+        <v>499</v>
+      </c>
       <c r="L49" t="s">
         <v>306</v>
       </c>
@@ -3297,7 +3561,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>491</v>
+      </c>
+      <c r="F50" t="s">
+        <v>500</v>
+      </c>
       <c r="L50" t="s">
         <v>308</v>
       </c>
@@ -3311,7 +3581,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>492</v>
+      </c>
+      <c r="F51" t="s">
+        <v>501</v>
+      </c>
       <c r="L51" t="s">
         <v>311</v>
       </c>
@@ -3325,7 +3601,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>493</v>
+      </c>
+      <c r="F52" t="s">
+        <v>505</v>
+      </c>
       <c r="L52" t="s">
         <v>346</v>
       </c>
@@ -3339,7 +3621,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>494</v>
+      </c>
+      <c r="F53" t="s">
+        <v>502</v>
+      </c>
       <c r="L53" t="s">
         <v>347</v>
       </c>
@@ -3353,7 +3641,13 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>495</v>
+      </c>
+      <c r="F54" t="s">
+        <v>503</v>
+      </c>
       <c r="L54" t="s">
         <v>360</v>
       </c>
@@ -3367,7 +3661,13 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>506</v>
+      </c>
+      <c r="F55" t="s">
+        <v>507</v>
+      </c>
       <c r="L55" t="s">
         <v>362</v>
       </c>
@@ -3381,7 +3681,13 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>510</v>
+      </c>
+      <c r="F56" t="s">
+        <v>511</v>
+      </c>
       <c r="L56" t="s">
         <v>364</v>
       </c>
@@ -3395,7 +3701,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>512</v>
+      </c>
+      <c r="F57" t="s">
+        <v>514</v>
+      </c>
       <c r="L57" t="s">
         <v>366</v>
       </c>
@@ -3409,7 +3721,13 @@
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>513</v>
+      </c>
+      <c r="F58" t="s">
+        <v>515</v>
+      </c>
       <c r="L58" t="s">
         <v>370</v>
       </c>
@@ -3417,7 +3735,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>371</v>
       </c>
@@ -3425,7 +3743,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>372</v>
       </c>
@@ -3433,7 +3751,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
         <v>373</v>
       </c>
@@ -3441,7 +3759,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>374</v>
       </c>
@@ -3449,7 +3767,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>375</v>
       </c>
@@ -3457,7 +3775,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
         <v>382</v>
       </c>
